--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1747783.703550916</v>
+        <v>1707820.420611722</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914465</v>
+        <v>426806.9758914459</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478709</v>
+        <v>8362709.488478708</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8030939.473358331</v>
+        <v>8030939.47335833</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14.97838026812587</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -791,13 +791,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>64.58339418553388</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>232.8330857361503</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>215.4635706239871</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>90.09798413141016</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>36.92341995832215</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>241.0142888776591</v>
@@ -1144,7 +1144,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>37.12283097261258</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>178.157313031983</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.16343725408909</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>26.2007560477438</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>169.6064579137039</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>186.090709456443</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.05362125751933</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.25280406479386</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>13.08993799274038</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>372.8161228924253</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>118.6572931310716</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>104.4814346654896</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>149.3102327444246</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20.23677834405301</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>176.7078487302606</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>43.21382200243659</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>29.92088634619648</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>35.33191364804597</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.3677099213027</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.3661152307035</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>153.9561866171905</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>112.2589953134735</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>68.3342632432397</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -2210,7 +2210,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0.4026817847175834</v>
       </c>
       <c r="T21" t="n">
         <v>197.3677099213027</v>
@@ -2222,10 +2222,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>193.5433404074103</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>142.2748443975433</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>183.4401280146814</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>234.7816905000068</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>17.51213500947733</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2402,19 +2402,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>106.6703148185773</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>43.76331341951727</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>132.2037233045428</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>73.66757925108487</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>131.4894490586608</v>
+        <v>122.0274626093219</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.3170546811963</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>52.1829371375707</v>
       </c>
       <c r="G27" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>146.5623749521073</v>
       </c>
       <c r="H28" t="n">
-        <v>41.64630306148109</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>101.0236645980884</v>
       </c>
       <c r="G29" t="n">
         <v>414.005789270132</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>48.59373680397991</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>75.3170546811963</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>154.0969082539765</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>30.69814201354254</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>13.08993799274022</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>71.97341153415302</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>126.1688367855712</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3164,10 +3164,10 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V33" t="n">
-        <v>194.7716880834213</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>102.6287258350842</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>47.47529300550296</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>101.3506813916996</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>124.0722024138724</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75.31705468119675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3365,7 +3365,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>17.44731957864619</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>197.3677099213027</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>36.19356550490923</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>47.23959131629399</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>128.7067877912747</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>55.6725096678956</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
-        <v>120.764854730051</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>74.15307578127808</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>152.9432719935528</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>43.70714692896421</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>204.3345949224227</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>153.2113240319137</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3830,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>126.7984012085847</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>180.3585974057385</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>244.2593615584</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>44.19205916500874</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4067,13 +4067,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>3.722778175975149</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>182.6275281514786</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>115.1647083088916</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="E2" t="n">
-        <v>730.8505943024719</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="F2" t="n">
         <v>487.4018176583718</v>
@@ -4357,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4439,22 +4439,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>624.2345298116313</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>396.0109115480204</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>396.0109115480204</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W3" t="n">
-        <v>396.0109115480204</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X3" t="n">
-        <v>396.0109115480204</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.2506127830665</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="D5" t="n">
-        <v>710.516763498309</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="E5" t="n">
-        <v>710.516763498309</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="F5" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>525.1941863946996</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>382.9414955037181</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="C6" t="n">
-        <v>382.9414955037181</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="D6" t="n">
-        <v>382.9414955037181</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F6" t="n">
         <v>223.7040404982626</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>926.7607717143512</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>753.3434271650201</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>551.1568325237861</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>551.1568325237861</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>551.1568325237861</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W6" t="n">
-        <v>551.1568325237861</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X6" t="n">
-        <v>551.1568325237861</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y6" t="n">
-        <v>551.1568325237861</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>784.1002736601483</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>248.3115976704407</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C9" t="n">
-        <v>248.3115976704407</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D9" t="n">
-        <v>248.3115976704407</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>248.3115976704407</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>248.3115976704407</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>292.9211302503287</v>
+        <v>836.4222159142857</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
         <v>41.77557929797318</v>
@@ -4995,19 +4995,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1129.910631765282</v>
+        <v>1323.932475581935</v>
       </c>
       <c r="C11" t="n">
-        <v>1129.910631765282</v>
+        <v>954.9699586415231</v>
       </c>
       <c r="D11" t="n">
-        <v>1129.910631765282</v>
+        <v>596.7042600347727</v>
       </c>
       <c r="E11" t="n">
-        <v>1129.910631765282</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="F11" t="n">
-        <v>958.5909773069948</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G11" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H11" t="n">
         <v>210.9160074365284</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T11" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U11" t="n">
-        <v>2187.207932640046</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V11" t="n">
-        <v>1856.145045296475</v>
+        <v>1710.532315646057</v>
       </c>
       <c r="W11" t="n">
-        <v>1503.376390026361</v>
+        <v>1710.532315646057</v>
       </c>
       <c r="X11" t="n">
-        <v>1129.910631765282</v>
+        <v>1710.532315646057</v>
       </c>
       <c r="Y11" t="n">
-        <v>1129.910631765282</v>
+        <v>1710.532315646057</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>839.8406951725675</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>665.3876658914405</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N12" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>568.6656403223806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J13" t="n">
         <v>48.81975253256327</v>
@@ -5232,19 +5232,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V13" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2440.987626628164</v>
+        <v>1383.854442904611</v>
       </c>
       <c r="C14" t="n">
-        <v>2072.025109687752</v>
+        <v>1014.891925964199</v>
       </c>
       <c r="D14" t="n">
-        <v>1713.759411081001</v>
+        <v>1014.891925964199</v>
       </c>
       <c r="E14" t="n">
-        <v>1327.971158482757</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="F14" t="n">
-        <v>916.9852536931496</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H14" t="n">
         <v>210.9160074365284</v>
@@ -5308,22 +5308,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U14" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V14" t="n">
-        <v>2440.987626628164</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="W14" t="n">
-        <v>2440.987626628164</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="X14" t="n">
-        <v>2440.987626628164</v>
+        <v>1770.454282968732</v>
       </c>
       <c r="Y14" t="n">
-        <v>2440.987626628164</v>
+        <v>1770.454282968732</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>921.5458946967642</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>747.0928654156372</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>598.158455754386</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>438.9210007489305</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>292.3864427758155</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>154.3565552249771</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2290.169209714603</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.169209714603</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.991705784318</v>
+        <v>1994.762495647263</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.839597552575</v>
+        <v>1759.610387415521</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.602240824373</v>
+        <v>1505.373030687319</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.750740618841</v>
+        <v>1297.521530481786</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.990441853887</v>
+        <v>1089.761231716832</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>238.1971257069884</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="C16" t="n">
-        <v>69.26094277908146</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H16" t="n">
         <v>48.81975253256327</v>
@@ -5466,22 +5466,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>462.1453931855455</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>462.1453931855455</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="W16" t="n">
-        <v>640.6381696807582</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="X16" t="n">
-        <v>640.6381696807582</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="Y16" t="n">
-        <v>419.8455905372281</v>
+        <v>207.4609049796586</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>825.27311706874</v>
+        <v>1951.534578397632</v>
       </c>
       <c r="C17" t="n">
-        <v>825.27311706874</v>
+        <v>1951.534578397632</v>
       </c>
       <c r="D17" t="n">
-        <v>467.0074184619895</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E17" t="n">
-        <v>467.0074184619895</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F17" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G17" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5518,10 +5518,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5548,19 +5548,19 @@
         <v>2371.897027894854</v>
       </c>
       <c r="U17" t="n">
-        <v>2328.246702639868</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V17" t="n">
-        <v>2328.246702639868</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W17" t="n">
-        <v>1975.478047369753</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X17" t="n">
-        <v>1602.012289108673</v>
+        <v>2341.673910373444</v>
       </c>
       <c r="Y17" t="n">
-        <v>1211.872957132862</v>
+        <v>1951.534578397632</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>779.8344674874215</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C18" t="n">
-        <v>605.3814382062945</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D18" t="n">
-        <v>456.4470285450433</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E18" t="n">
-        <v>297.2095735395878</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F18" t="n">
-        <v>150.6750155664728</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G18" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5597,13 +5597,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K18" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L18" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M18" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N18" t="n">
         <v>1557.865593173221</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.987626628164</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="S18" t="n">
-        <v>2280.589895521037</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T18" t="n">
-        <v>2081.228572368206</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U18" t="n">
-        <v>1853.051068437921</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V18" t="n">
-        <v>1617.898960206178</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W18" t="n">
-        <v>1363.661603477976</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X18" t="n">
-        <v>1155.810103272443</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y18" t="n">
-        <v>948.0498045074896</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>217.7559354604702</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U19" t="n">
-        <v>351.4590821581505</v>
+        <v>485.1268700674343</v>
       </c>
       <c r="V19" t="n">
-        <v>351.4590821581505</v>
+        <v>485.1268700674343</v>
       </c>
       <c r="W19" t="n">
-        <v>351.4590821581505</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X19" t="n">
-        <v>351.4590821581505</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y19" t="n">
-        <v>351.4590821581505</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1482.969806655666</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C20" t="n">
-        <v>1369.576882096602</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="D20" t="n">
-        <v>1369.576882096602</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="E20" t="n">
-        <v>1369.576882096602</v>
+        <v>536.0319267884943</v>
       </c>
       <c r="F20" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U20" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V20" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W20" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X20" t="n">
-        <v>2259.7089786956</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y20" t="n">
-        <v>1869.569646719788</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.7751048338188</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3220755526918</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D21" t="n">
-        <v>665.3876658914405</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E21" t="n">
-        <v>506.150210885985</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H21" t="n">
         <v>114.9862139017798</v>
@@ -5834,22 +5834,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5858,25 +5858,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577549</v>
+        <v>2382.930981407183</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.569658254351</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.392154324066</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.240046092323</v>
       </c>
       <c r="W21" t="n">
-        <v>1560.249064262689</v>
+        <v>1466.002689364122</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.750740618841</v>
+        <v>1258.151189158589</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.990441853887</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C22" t="n">
-        <v>1849.169209479969</v>
+        <v>496.9262056428357</v>
       </c>
       <c r="D22" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="E22" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="F22" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="G22" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H22" t="n">
-        <v>1849.169209479969</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K22" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L22" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>2403.162327654352</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>2250.500649370103</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>2034.462268080657</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U22" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V22" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W22" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X22" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y22" t="n">
-        <v>1849.169209479969</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>629.1036733659547</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="C23" t="n">
-        <v>629.1036733659547</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D23" t="n">
-        <v>629.1036733659547</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E23" t="n">
-        <v>629.1036733659547</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F23" t="n">
-        <v>629.1036733659547</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G23" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H23" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
         <v>145.9660485697318</v>
@@ -6007,34 +6007,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U23" t="n">
-        <v>1717.22408130586</v>
+        <v>1984.21979923257</v>
       </c>
       <c r="V23" t="n">
-        <v>1386.161193962289</v>
+        <v>1984.21979923257</v>
       </c>
       <c r="W23" t="n">
-        <v>1033.392538692175</v>
+        <v>1984.21979923257</v>
       </c>
       <c r="X23" t="n">
-        <v>1015.703513430077</v>
+        <v>1984.21979923257</v>
       </c>
       <c r="Y23" t="n">
-        <v>1015.703513430077</v>
+        <v>1594.080467256759</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439335</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628066</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015553</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960998</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298476</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G24" t="n">
-        <v>93.02511962298476</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
         <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>318.2287647883257</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>697.355907913719</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M24" t="n">
-        <v>1191.758623309282</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1714.953720827628</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O24" t="n">
-        <v>2127.159342346857</v>
+        <v>2158.207869599012</v>
       </c>
       <c r="P24" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
         <v>2222.939999577549</v>
@@ -6101,10 +6101,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
         <v>1306.011707534488</v>
@@ -6113,7 +6113,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640016</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256328</v>
+        <v>182.3588669815964</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K25" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L25" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O25" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U25" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V25" t="n">
-        <v>566.2264734675412</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W25" t="n">
-        <v>276.8093034305806</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581503</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>987.3693719727053</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="C26" t="n">
-        <v>987.3693719727053</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="D26" t="n">
-        <v>629.1036733659547</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="E26" t="n">
-        <v>629.1036733659547</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F26" t="n">
-        <v>629.1036733659547</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G26" t="n">
-        <v>210.9160074365284</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H26" t="n">
         <v>210.9160074365284</v>
@@ -6253,25 +6253,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2190.61837996229</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U26" t="n">
-        <v>2190.61837996229</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V26" t="n">
-        <v>1859.55549261872</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.786837348606</v>
+        <v>1468.450880612856</v>
       </c>
       <c r="X26" t="n">
-        <v>1506.786837348606</v>
+        <v>1468.450880612856</v>
       </c>
       <c r="Y26" t="n">
-        <v>1373.969212036827</v>
+        <v>1345.190817371117</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>814.3220755526918</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
@@ -6308,13 +6308,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K27" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L27" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M27" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N27" t="n">
         <v>1557.865593173221</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>259.986940498492</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="C28" t="n">
-        <v>259.986940498492</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="D28" t="n">
-        <v>259.986940498492</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="E28" t="n">
-        <v>259.986940498492</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="F28" t="n">
-        <v>259.986940498492</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="G28" t="n">
-        <v>90.88672532193812</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H28" t="n">
         <v>48.81975253256327</v>
@@ -6393,43 +6393,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O28" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R28" t="n">
-        <v>487.9764913965093</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>487.9764913965093</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T28" t="n">
-        <v>487.9764913965093</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="U28" t="n">
-        <v>487.9764913965093</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="V28" t="n">
-        <v>487.9764913965093</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="W28" t="n">
-        <v>487.9764913965093</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="X28" t="n">
-        <v>259.986940498492</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="Y28" t="n">
-        <v>259.986940498492</v>
+        <v>196.8625555144898</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1991.009791397003</v>
+        <v>938.0140410570359</v>
       </c>
       <c r="C29" t="n">
-        <v>1622.047274456592</v>
+        <v>569.0515241166243</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.781575849841</v>
+        <v>569.0515241166243</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9933232515971</v>
+        <v>569.0515241166243</v>
       </c>
       <c r="F29" t="n">
         <v>467.0074184619895</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2040.094374027286</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>1991.009791397003</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V29" t="n">
-        <v>1991.009791397003</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W29" t="n">
-        <v>1991.009791397003</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X29" t="n">
-        <v>1991.009791397003</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="Y29" t="n">
-        <v>1991.009791397003</v>
+        <v>1324.613881121158</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>890.3999085640012</v>
+        <v>784.5787559137638</v>
       </c>
       <c r="C30" t="n">
-        <v>814.3220755526918</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D30" t="n">
-        <v>665.3876658914405</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E30" t="n">
-        <v>506.150210885985</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6156529128699</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G30" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2285.334183947379</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2085.972860794548</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>1857.795356864263</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1622.64324863252</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1368.405891904318</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1160.554391698786</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>952.7940929338317</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>419.8455905372281</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C31" t="n">
-        <v>419.8455905372281</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>388.8373662811245</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J31" t="n">
         <v>48.81975253256327</v>
@@ -6630,43 +6630,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O31" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T31" t="n">
-        <v>640.6381696807582</v>
+        <v>627.4160100921315</v>
       </c>
       <c r="U31" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V31" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W31" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X31" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y31" t="n">
-        <v>419.8455905372281</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1316.856675913745</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="C32" t="n">
-        <v>1316.856675913745</v>
+        <v>1211.061369666984</v>
       </c>
       <c r="D32" t="n">
-        <v>958.5909773069948</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E32" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F32" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
@@ -6703,7 +6703,7 @@
         <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540048</v>
@@ -6730,22 +6730,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2313.544357147789</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U32" t="n">
-        <v>2059.764663159671</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V32" t="n">
-        <v>2059.764663159671</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W32" t="n">
-        <v>1706.996007889557</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="X32" t="n">
-        <v>1706.996007889557</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="Y32" t="n">
-        <v>1316.856675913745</v>
+        <v>1283.761785358048</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C33" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D33" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E33" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F33" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G33" t="n">
-        <v>221.5857653620315</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
@@ -6782,22 +6782,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N33" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P33" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6812,19 +6812,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>2023.578676424718</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1849.169209479969</v>
+        <v>640.638169680758</v>
       </c>
       <c r="C34" t="n">
-        <v>1849.169209479969</v>
+        <v>471.7019867528511</v>
       </c>
       <c r="D34" t="n">
-        <v>1849.169209479969</v>
+        <v>321.5853473405153</v>
       </c>
       <c r="E34" t="n">
-        <v>1849.169209479969</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F34" t="n">
-        <v>1849.169209479969</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K34" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L34" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N34" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O34" t="n">
-        <v>2374.023479227556</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U34" t="n">
-        <v>2151.808539105556</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V34" t="n">
-        <v>1897.124050899669</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W34" t="n">
-        <v>1897.124050899669</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X34" t="n">
-        <v>1849.169209479969</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Y34" t="n">
-        <v>1849.169209479969</v>
+        <v>640.638169680758</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1165.457239343441</v>
+        <v>520.1566951211564</v>
       </c>
       <c r="C35" t="n">
-        <v>796.4947224030295</v>
+        <v>151.1941781807447</v>
       </c>
       <c r="D35" t="n">
-        <v>796.4947224030295</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E35" t="n">
-        <v>796.4947224030295</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F35" t="n">
-        <v>796.4947224030295</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G35" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M35" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
         <v>1672.394424063531</v>
@@ -6955,7 +6955,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
@@ -6967,22 +6967,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U35" t="n">
-        <v>2315.662169644454</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V35" t="n">
-        <v>2315.662169644454</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W35" t="n">
-        <v>2315.662169644454</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="X35" t="n">
-        <v>1942.196411383375</v>
+        <v>910.2960270969681</v>
       </c>
       <c r="Y35" t="n">
-        <v>1552.057079407563</v>
+        <v>520.1566951211564</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>814.3220755526918</v>
+        <v>940.2321985945478</v>
       </c>
       <c r="C36" t="n">
-        <v>814.3220755526918</v>
+        <v>765.7791693134208</v>
       </c>
       <c r="D36" t="n">
-        <v>665.3876658914405</v>
+        <v>616.8447596521695</v>
       </c>
       <c r="E36" t="n">
-        <v>506.150210885985</v>
+        <v>457.607304646714</v>
       </c>
       <c r="F36" t="n">
-        <v>359.6156529128699</v>
+        <v>311.072746673599</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>173.0428591227606</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>66.44330766250891</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L36" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M36" t="n">
         <v>1034.670495654875</v>
@@ -7040,28 +7040,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.578676424718</v>
+        <v>2241.626303475332</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494433</v>
+        <v>2013.448799545047</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.24906426269</v>
+        <v>1778.296691313304</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1524.059334585103</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1316.20783437957</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640016</v>
+        <v>1108.447535614616</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.81975253256328</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="C37" t="n">
-        <v>48.81975253256328</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D37" t="n">
-        <v>48.81975253256328</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O37" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R37" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="S37" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="T37" t="n">
-        <v>640.6381696807582</v>
+        <v>451.4173343208432</v>
       </c>
       <c r="U37" t="n">
-        <v>640.6381696807582</v>
+        <v>451.4173343208432</v>
       </c>
       <c r="V37" t="n">
-        <v>385.9536814748714</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="W37" t="n">
-        <v>96.53651143791075</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="X37" t="n">
-        <v>48.81975253256328</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.81975253256328</v>
+        <v>196.7328461149564</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1221.692097593841</v>
+        <v>1133.057826012259</v>
       </c>
       <c r="C38" t="n">
-        <v>852.7295806534291</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="D38" t="n">
-        <v>852.7295806534291</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="E38" t="n">
-        <v>852.7295806534291</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F38" t="n">
-        <v>852.7295806534291</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G38" t="n">
-        <v>434.5419147240029</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H38" t="n">
-        <v>105.0546107829629</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
         <v>48.81975253256327</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2371.897027894854</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U38" t="n">
-        <v>2371.897027894854</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V38" t="n">
-        <v>2371.897027894854</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W38" t="n">
-        <v>2371.897027894854</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="X38" t="n">
-        <v>1998.431269633774</v>
+        <v>1263.064682367082</v>
       </c>
       <c r="Y38" t="n">
-        <v>1608.291937657963</v>
+        <v>1263.064682367082</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C39" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D39" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E39" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F39" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G39" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
@@ -7277,28 +7277,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2383.337730684675</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="S39" t="n">
-        <v>2383.337730684675</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T39" t="n">
-        <v>2183.976407531844</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U39" t="n">
-        <v>2061.991705784318</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.839597552575</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.602240824373</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.750740618841</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.990441853887</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>196.7328461149564</v>
+        <v>123.721849281329</v>
       </c>
       <c r="C40" t="n">
-        <v>196.7328461149564</v>
+        <v>123.721849281329</v>
       </c>
       <c r="D40" t="n">
-        <v>196.7328461149564</v>
+        <v>123.721849281329</v>
       </c>
       <c r="E40" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="G40" t="n">
         <v>48.81975253256327</v>
@@ -7362,22 +7362,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U40" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="V40" t="n">
-        <v>486.150016151917</v>
+        <v>123.721849281329</v>
       </c>
       <c r="W40" t="n">
-        <v>196.7328461149564</v>
+        <v>123.721849281329</v>
       </c>
       <c r="X40" t="n">
-        <v>196.7328461149564</v>
+        <v>123.721849281329</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.7328461149564</v>
+        <v>123.721849281329</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1799.513767956427</v>
+        <v>1413.879207922357</v>
       </c>
       <c r="C41" t="n">
-        <v>1799.513767956427</v>
+        <v>1413.879207922357</v>
       </c>
       <c r="D41" t="n">
-        <v>1755.365134694847</v>
+        <v>1413.879207922357</v>
       </c>
       <c r="E41" t="n">
-        <v>1369.576882096602</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F41" t="n">
-        <v>958.5909773069948</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G41" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697315</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977586</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540041</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
@@ -7438,25 +7438,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S41" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T41" t="n">
-        <v>2152.282423226541</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U41" t="n">
-        <v>2152.282423226541</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="V41" t="n">
-        <v>2152.282423226541</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="W41" t="n">
-        <v>1799.513767956427</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="X41" t="n">
-        <v>1799.513767956427</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="Y41" t="n">
-        <v>1799.513767956427</v>
+        <v>1800.479047986479</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>735.640995400452</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C42" t="n">
-        <v>561.187966119325</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D42" t="n">
-        <v>412.2535564580737</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E42" t="n">
-        <v>253.0161014526182</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F42" t="n">
-        <v>253.0161014526182</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C43" t="n">
-        <v>471.7019867528513</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D43" t="n">
-        <v>343.6227936128668</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E43" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F43" t="n">
         <v>48.81975253256327</v>
@@ -7599,22 +7599,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807582</v>
+        <v>458.4577682608203</v>
       </c>
       <c r="U43" t="n">
-        <v>640.6381696807582</v>
+        <v>458.4577682608203</v>
       </c>
       <c r="V43" t="n">
-        <v>640.6381696807582</v>
+        <v>458.4577682608203</v>
       </c>
       <c r="W43" t="n">
-        <v>640.6381696807582</v>
+        <v>458.4577682608203</v>
       </c>
       <c r="X43" t="n">
-        <v>640.6381696807582</v>
+        <v>230.468217362803</v>
       </c>
       <c r="Y43" t="n">
-        <v>640.6381696807582</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1022.774595916493</v>
+        <v>1632.744092790253</v>
       </c>
       <c r="C44" t="n">
-        <v>653.8120789760815</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D44" t="n">
-        <v>295.546380369331</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E44" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F44" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
         <v>48.81975253256327</v>
@@ -7648,10 +7648,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697315</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977586</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540041</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V44" t="n">
-        <v>2152.282423226541</v>
+        <v>2396.349183027145</v>
       </c>
       <c r="W44" t="n">
-        <v>1799.513767956427</v>
+        <v>2396.349183027145</v>
       </c>
       <c r="X44" t="n">
-        <v>1799.513767956427</v>
+        <v>2022.883424766065</v>
       </c>
       <c r="Y44" t="n">
-        <v>1409.374435980615</v>
+        <v>1632.744092790253</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>776.0740854914872</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>601.6210562103602</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>452.6866465491088</v>
       </c>
       <c r="E45" t="n">
-        <v>239.5596775960993</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="F45" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G45" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H45" t="n">
         <v>48.81975253256327</v>
@@ -7727,52 +7727,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2437.227244632229</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2276.829513525103</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2077.468190372272</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1849.290686441986</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1614.138578210243</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1359.901221482042</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1152.049721276509</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>944.2894225115551</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>524.3101814899586</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>303.5042407384502</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>303.5042407384502</v>
+        <v>524.3101814899586</v>
       </c>
       <c r="V46" t="n">
-        <v>48.81975253256327</v>
+        <v>524.3101814899586</v>
       </c>
       <c r="W46" t="n">
-        <v>48.81975253256327</v>
+        <v>524.3101814899586</v>
       </c>
       <c r="X46" t="n">
-        <v>48.81975253256327</v>
+        <v>524.3101814899586</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>524.3101814899586</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O15" t="n">
-        <v>362.5001705371775</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9482,7 +9482,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>233.1030882730273</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817937</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443506</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>287.1006199003852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194302</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K36" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>340.4824716403222</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>237.2695878280075</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>141.6615490136919</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116.479562392348</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>74.16824395813738</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>41.18966637770666</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>251.0738075473975</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.052121280159525</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>9.483521051630163</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>128.3786946741594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>137.955174638333</v>
@@ -23706,13 +23706,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>48.75201181779266</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23788,16 +23788,16 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>208.0280750457997</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>339.8102143322726</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>101.317675027284</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>39.626077405407</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.46586495123378</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23946,13 +23946,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>132.3311100301911</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>253.0138964575341</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.5417824984717</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
         <v>217.4184586216305</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.3910720113372</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>12.22964479606713</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>24.97197670108457</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>52.22830032617343</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>42.01973253337192</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>16.46020654822942</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>352.2189656689917</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24290,19 +24290,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>40.77475074606143</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>61.7702425261319</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>24.85101761808147</v>
       </c>
       <c r="I25" t="n">
         <v>137.955174638333</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24420,16 +24420,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>178.4700640727431</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2418970482362</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>254.7484895973928</v>
+        <v>264.2104760467317</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>91.21612896867104</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>20.84683807268104</v>
       </c>
       <c r="H28" t="n">
-        <v>115.4084378611432</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
         <v>137.955174638333</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2872966473816</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>305.8523811436231</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>202.6481602442563</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>97.39144430711944</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>4.696845542078279</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>117.9173310046698</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,10 +24858,10 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
@@ -24891,22 +24891,22 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>212.3699225553131</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>293.2994802368545</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>91.24962183605926</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>21.74148333600759</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25052,10 +25052,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>38.02889906600399</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.80523681148496</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
@@ -25131,16 +25131,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>178.2343623835342</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>253.3323602289834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>127.1696946343638</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>91.21612896867059</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.05747717687822</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>189.2662950431441</v>
       </c>
       <c r="U37" t="n">
         <v>286.2872966473816</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>178.4700640727432</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>254.0270538722059</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>104.8027826870299</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>39.626077405407</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>105.1308741609317</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>93.25613724351025</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25602,16 +25602,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>99.1943713302752</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>310.9758946917187</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>177.5957751498391</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.32185961795363</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H42" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>21.81707180962763</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
@@ -25839,7 +25839,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>45.10126314231479</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>137.6710085138618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>283.5601993051262</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.35061880807839</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26070,19 +26070,19 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>42.83233239657471</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>171.12258833849</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>622097.4598083734</v>
+        <v>622097.4598083732</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622097.4598083732</v>
+        <v>622097.4598083731</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>622097.4598083732</v>
+        <v>622097.4598083734</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>622097.4598083734</v>
+        <v>622097.4598083732</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622097.4598083732</v>
+        <v>622097.4598083734</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.350840495</v>
       </c>
       <c r="F2" t="n">
         <v>379599.3508404949</v>
@@ -26337,25 +26337,25 @@
         <v>379599.350840495</v>
       </c>
       <c r="J2" t="n">
-        <v>379599.350840495</v>
+        <v>379599.3508404948</v>
       </c>
       <c r="K2" t="n">
         <v>379599.350840495</v>
       </c>
       <c r="L2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.350840495</v>
       </c>
       <c r="M2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.350840495</v>
       </c>
       <c r="N2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.350840495</v>
       </c>
       <c r="O2" t="n">
         <v>379599.3508404949</v>
       </c>
       <c r="P2" t="n">
-        <v>379599.350840495</v>
+        <v>379599.3508404949</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>53162.14282437483</v>
       </c>
       <c r="F4" t="n">
-        <v>53162.14282437482</v>
+        <v>53162.14282437484</v>
       </c>
       <c r="G4" t="n">
-        <v>53162.14282437483</v>
+        <v>53162.14282437484</v>
       </c>
       <c r="H4" t="n">
         <v>53162.14282437483</v>
@@ -26441,10 +26441,10 @@
         <v>53162.14282437484</v>
       </c>
       <c r="J4" t="n">
-        <v>53162.14282437483</v>
+        <v>53162.14282437484</v>
       </c>
       <c r="K4" t="n">
-        <v>53162.14282437483</v>
+        <v>53162.14282437484</v>
       </c>
       <c r="L4" t="n">
         <v>53162.14282437483</v>
@@ -26490,7 +26490,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="J5" t="n">
         <v>44136.03802033842</v>
@@ -26502,7 +26502,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116348.007047695</v>
+        <v>116348.0070476949</v>
       </c>
       <c r="C6" t="n">
         <v>197117.4385792426</v>
       </c>
       <c r="D6" t="n">
-        <v>197117.4385792423</v>
+        <v>197117.4385792425</v>
       </c>
       <c r="E6" t="n">
-        <v>-87134.12913699845</v>
+        <v>-94103.05371073066</v>
       </c>
       <c r="F6" t="n">
-        <v>282301.1699957817</v>
+        <v>275332.2454220494</v>
       </c>
       <c r="G6" t="n">
-        <v>282301.1699957817</v>
+        <v>275332.2454220494</v>
       </c>
       <c r="H6" t="n">
-        <v>282301.1699957817</v>
+        <v>275332.2454220494</v>
       </c>
       <c r="I6" t="n">
-        <v>282301.1699957817</v>
+        <v>275332.2454220495</v>
       </c>
       <c r="J6" t="n">
-        <v>219241.2273966755</v>
+        <v>212272.302822943</v>
       </c>
       <c r="K6" t="n">
-        <v>282301.1699957818</v>
+        <v>275332.2454220495</v>
       </c>
       <c r="L6" t="n">
-        <v>282301.1699957816</v>
+        <v>275332.2454220495</v>
       </c>
       <c r="M6" t="n">
-        <v>190286.9247146886</v>
+        <v>183318.0001409564</v>
       </c>
       <c r="N6" t="n">
-        <v>282301.1699957816</v>
+        <v>275332.2454220495</v>
       </c>
       <c r="O6" t="n">
-        <v>282301.1699957817</v>
+        <v>275332.2454220494</v>
       </c>
       <c r="P6" t="n">
-        <v>282301.1699957817</v>
+        <v>275332.2454220494</v>
       </c>
     </row>
   </sheetData>
@@ -26810,7 +26810,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="J4" t="n">
         <v>610.2469066570409</v>
@@ -26822,7 +26822,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
         <v>610.2469066570409</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>350.2945115028817</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>151.0558744761791</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
@@ -27429,13 +27429,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,13 +27511,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>135.5813345092877</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>49.05569651810563</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>182.4696517789847</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>7.632278940144289</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,10 +27703,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>67.54709632399079</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>63.23441419432098</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27830,13 +27830,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>249.2126826229021</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>113.6687527430239</v>
@@ -27864,7 +27864,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>369.7532147690989</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>191.573787646486</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.3697463957783</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27940,22 +27940,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27988,10 +27988,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>179.4819397295606</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K24" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R24" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L25" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P25" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K27" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R27" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L28" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P28" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K30" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R30" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L31" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P31" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K33" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R33" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L34" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P34" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K36" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R36" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L37" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P37" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
@@ -35500,7 +35500,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35737,16 +35737,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O15" t="n">
-        <v>385.0071659263357</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K24" t="n">
-        <v>207.3158823613952</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36454,10 +36454,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926721</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K27" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N27" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N30" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009466</v>
+        <v>48.64100594280298</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
         <v>528.4798964831782</v>
@@ -37165,10 +37165,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P33" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.39668221774</v>
+        <v>374.1740901080622</v>
       </c>
       <c r="N36" t="n">
         <v>528.4798964831782</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471535</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37800,7 +37800,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q41" t="n">
-        <v>130.0651205780289</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
         <v>238.6780311009466</v>
@@ -37870,7 +37870,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471535</v>
       </c>
       <c r="K44" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L44" t="n">
-        <v>386.5629597537828</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M44" t="n">
         <v>446.9000637909531</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
